--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ACD/15/seed5/result_data_RandomForest.xlsx
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.3533</v>
+        <v>-12.8791</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.39569999999999</v>
+        <v>-21.38349999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -634,7 +634,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.494899999999994</v>
+        <v>-8.154799999999998</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.164600000000002</v>
+        <v>-8.181799999999999</v>
       </c>
     </row>
     <row r="20">
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.02519999999999</v>
+        <v>-11.8931</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.250799999999984</v>
+        <v>-8.603799999999985</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.0025</v>
+        <v>-21.87179999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.9629</v>
+        <v>-13.5388</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.81580000000002</v>
+        <v>-21.66400000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.118</v>
+        <v>-13.203</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.09570000000001</v>
+        <v>-12.25090000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.9649</v>
+        <v>-20.15699999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.70189999999999</v>
+        <v>-19.9286</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.760799999999997</v>
+        <v>-7.721100000000002</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.134399999999998</v>
+        <v>-7.996400000000001</v>
       </c>
     </row>
     <row r="42">
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.755</v>
+        <v>-12.8307</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.76010000000001</v>
+        <v>-21.97280000000002</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.69959999999998</v>
+        <v>-14.14949999999999</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.815999999999997</v>
+        <v>-7.813200000000002</v>
       </c>
     </row>
     <row r="53">
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.7819</v>
+        <v>-21.7908</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.64269999999999</v>
+        <v>-12.8274</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2331</v>
+        <v>-22.38490000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.11110000000002</v>
+        <v>-22.0456</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.56989999999997</v>
+        <v>-21.56609999999996</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.69479999999998</v>
+        <v>-21.71139999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.9895</v>
+        <v>-21.89699999999998</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1446,7 +1446,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.0688</v>
+        <v>-6.994500000000003</v>
       </c>
     </row>
     <row r="73">
@@ -1527,10 +1527,10 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.97420000000001</v>
+        <v>-12.0432</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.117400000000002</v>
+        <v>-8.155200000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-13.47410000000001</v>
+        <v>-13.2085</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.52039999999998</v>
+        <v>-21.59699999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-7.542300000000001</v>
+        <v>-7.681300000000004</v>
       </c>
     </row>
     <row r="84">
@@ -1628,12 +1628,12 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.461200000000002</v>
+        <v>-8.531500000000003</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.90700000000002</v>
+        <v>-21.84590000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.868900000000004</v>
+        <v>-9.054900000000004</v>
       </c>
     </row>
     <row r="87">
@@ -1698,12 +1698,12 @@
         <v>-10.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-6.986299999999993</v>
+        <v>-7.017999999999994</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.63449999999997</v>
+        <v>-20.64889999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.58550000000001</v>
+        <v>-21.53590000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.370999999999993</v>
+        <v>-8.514099999999994</v>
       </c>
     </row>
     <row r="97">
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.4741</v>
+        <v>-11.0868</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.8405</v>
+        <v>-21.69349999999999</v>
       </c>
       <c r="B99" t="n">
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.5442</v>
+        <v>-12.65</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.1138</v>
+        <v>-12.5553</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1880,12 +1880,12 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-7.851400000000001</v>
+        <v>-7.981100000000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.3151</v>
+        <v>-21.38019999999998</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
